--- a/src/db/db_search.xlsx
+++ b/src/db/db_search.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,23 +514,9 @@
         <v>9.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>24008</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Gerardo</v>
-      </c>
-      <c r="C9" t="str">
-        <v>ITIC-101V</v>
-      </c>
-      <c r="D9">
-        <v>9.2</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>